--- a/assets/sp_cetesb_infoaguas/excel/QUIL03500.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/QUIL03500.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.90000000</t>
+          <t>35.70000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,13 +532,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>227.00000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,13 +558,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>65.00000000</t>
+          <t>199.00000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -584,18 +584,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -610,18 +610,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.60000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -636,18 +636,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -662,13 +662,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>1.90000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -688,18 +688,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>414.00000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -714,18 +714,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>24.60000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -766,13 +766,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -792,13 +792,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.80000000</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -818,13 +818,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>199.00000000</t>
+          <t>65.00000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -844,13 +844,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>35.70000000</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -870,18 +870,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>34.00000000</t>
+          <t>700000.00000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -922,18 +922,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -948,18 +948,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>414.00000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -974,18 +974,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>32.00000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1000,18 +1000,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1026,13 +1026,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>26.50000000</t>
+          <t>2.80000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1078,18 +1078,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>227.00000000</t>
+          <t>34.00000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>700000.00000000</t>
+          <t>26.50000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1130,18 +1130,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1156,18 +1156,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>230.00000000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1208,13 +1208,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>128.00000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1234,18 +1234,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1260,13 +1260,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.28000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1286,13 +1286,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1312,18 +1312,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19.90000000</t>
+          <t>230.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1338,13 +1338,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.28000000</t>
+          <t>17.40000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1364,18 +1364,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>220.00000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1390,13 +1390,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>2.11000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1416,18 +1416,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1442,18 +1442,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.10000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1468,17 +1468,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DQO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>108.00000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1498,13 +1494,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>328.00000000</t>
+          <t>23.20000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1524,18 +1520,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>23.20000000</t>
+          <t>24.80000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1550,18 +1546,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>790000.00000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1576,18 +1572,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>220.00000000</t>
+          <t>328.00000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1602,13 +1598,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>128.00000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1628,18 +1624,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.11000000</t>
+          <t>790000.00000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1654,18 +1650,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1680,18 +1680,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>24.80000000</t>
+          <t>6.10000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1706,13 +1706,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>108.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1732,13 +1732,13 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17.40000000</t>
+          <t>19.90000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1758,18 +1758,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1810,13 +1810,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1836,18 +1836,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>530.00000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1862,13 +1862,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>149.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1888,18 +1888,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22.70000000</t>
+          <t>9.50000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1914,18 +1914,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>530.00000000</t>
+          <t>149.00000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1940,18 +1940,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>770000.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1966,13 +1970,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>0.84000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -1992,18 +1996,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>46.00000000</t>
+          <t>770000.00000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2022,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.84000000</t>
+          <t>46.00000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2044,13 +2048,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>33.90000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2070,18 +2074,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>60.00000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2096,13 +2100,13 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>48.80000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2122,13 +2126,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2148,18 +2152,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2174,18 +2178,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>37.50000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2200,18 +2204,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>21.70000000</t>
+          <t>370.00000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2226,18 +2230,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>299.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2252,22 +2256,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>60.00000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2282,13 +2282,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>299.00000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2308,13 +2308,13 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>33.90000000</t>
+          <t>48.80000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2334,18 +2334,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>21.70000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2360,18 +2360,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>370.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2386,13 +2386,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>9.50000000</t>
+          <t>37.50000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2412,18 +2412,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>22.70000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2438,13 +2438,13 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>322.00000000</t>
+          <t>180.00000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2464,18 +2464,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1400000.00000000</t>
+          <t>83.00000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2490,13 +2490,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>44.10000000</t>
+          <t>322.00000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2516,18 +2516,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>7.40000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2542,13 +2542,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7.12000000</t>
+          <t>14.70000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2568,13 +2568,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>407.00000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2594,18 +2594,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>180.00000000</t>
+          <t>1400000.00000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2620,18 +2620,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>56.90000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2672,13 +2672,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14.70000000</t>
+          <t>407.00000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2698,13 +2698,13 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>49.40000000</t>
+          <t>1.21000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2724,13 +2724,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2750,18 +2750,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>17.60000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2776,18 +2776,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>17.60000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2802,18 +2802,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>60.00000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2828,18 +2828,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>643.00000000</t>
+          <t>7.12000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2854,18 +2854,18 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7.40000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2880,18 +2880,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>643.00000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2906,13 +2906,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>49.40000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -2932,18 +2932,18 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>21.70000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2958,18 +2958,18 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>21.70000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2984,18 +2984,18 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>60.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3010,13 +3010,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>83.00000000</t>
+          <t>44.10000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3036,13 +3036,13 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.21000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3062,13 +3062,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>56.90000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3088,18 +3088,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>1400000.00000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3114,13 +3114,13 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>397.00000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3140,18 +3140,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3166,18 +3166,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3192,18 +3192,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>6.74000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3218,13 +3218,13 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>324.00000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3244,13 +3244,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>16.60000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3374,13 +3374,13 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6.74000000</t>
+          <t>49.60000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3400,18 +3400,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>49.60000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3426,13 +3426,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>397.00000000</t>
+          <t>167.00000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3452,13 +3452,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>16.60000000</t>
+          <t>62.70000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3478,18 +3478,18 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3504,18 +3504,18 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1400000.00000000</t>
+          <t>60.00000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3530,18 +3530,18 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>683.00000000</t>
+          <t>324.00000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3556,18 +3556,18 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>62.70000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3582,13 +3582,13 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>70.00000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3634,18 +3634,18 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>167.00000000</t>
+          <t>683.00000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3660,18 +3660,18 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3686,18 +3686,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>70.00000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3712,18 +3712,18 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>60.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3738,18 +3738,18 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2.66000000</t>
+          <t>45.00000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3764,13 +3764,13 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3790,13 +3790,13 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>53.70000000</t>
+          <t>2.66000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3816,18 +3816,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>24.90000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3842,18 +3842,18 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>27.60000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3868,13 +3868,13 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.77000000</t>
+          <t>33.10000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -3894,13 +3894,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>28.80000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -3920,18 +3920,18 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3946,13 +3946,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>33.10000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -3972,18 +3972,18 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>393.00000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3998,13 +3998,13 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>69.00000000</t>
+          <t>279.00000000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4050,18 +4050,18 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>279.00000000</t>
+          <t>24.90000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4076,18 +4076,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>27.60000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4102,13 +4102,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>16.20000000</t>
+          <t>0.77000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4128,13 +4128,13 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>53.70000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4154,13 +4154,13 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>28.80000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4180,18 +4180,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>16.20000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4206,18 +4206,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>605.00000000</t>
+          <t>69.00000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4232,18 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>45.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4258,18 +4258,18 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2900000.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4310,18 +4310,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>393.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4336,18 +4336,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>2900000.00000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4362,18 +4362,18 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>605.00000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4388,18 +4388,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>420000.00000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4414,18 +4414,18 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>267.00000000</t>
+          <t>26.50000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4440,18 +4440,18 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>6.80000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4466,13 +4466,13 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>18.70000000</t>
+          <t>206.00000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -4492,18 +4492,18 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4518,13 +4518,13 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0.69000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4544,13 +4544,13 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>20.00000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -4570,13 +4570,13 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>20.00000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -4596,13 +4596,13 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>0.69000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -4622,13 +4622,13 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0.46000000</t>
+          <t>32.00000000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -4648,18 +4648,18 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>29.40000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4674,18 +4674,18 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>15.20000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4700,18 +4700,18 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>29.40000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4726,13 +4726,13 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>15.20000000</t>
+          <t>0.46000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -4752,13 +4752,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>147.00000000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -4778,18 +4778,18 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>420000.00000000</t>
+          <t>267.00000000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4804,18 +4804,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>26.50000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4830,13 +4830,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>12.50000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -4856,18 +4860,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4882,13 +4886,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>32.00000000</t>
+          <t>18.70000000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -4908,22 +4912,18 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>75.00000000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4938,13 +4938,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>147.00000000</t>
+          <t>12.50000000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -4964,18 +4964,18 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>75.00000000</t>
+          <t>6.80000000</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4990,18 +4990,18 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>206.00000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5016,18 +5016,18 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>25.50000000</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5042,18 +5042,18 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>25.50000000</t>
+          <t>19.50000000</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5068,18 +5068,18 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>19.50000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5094,13 +5094,13 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>1.27000000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>7.40000000</t>
+          <t>3.80000000</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5146,18 +5146,18 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>3.39000000</t>
+          <t>263.00000000</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5172,18 +5172,18 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>263.00000000</t>
+          <t>155.00000000</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5198,18 +5198,18 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>590000.00000000</t>
+          <t>7.40000000</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5224,17 +5224,13 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5280,13 +5276,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>155.00000000</t>
+          <t>0.54000000</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -5336,13 +5332,13 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>11.00000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -5362,18 +5358,18 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>75.00000000</t>
+          <t>17.30000000</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5388,18 +5384,18 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1.27000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5414,13 +5410,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>17.30000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -5440,18 +5440,18 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>0.98000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5466,13 +5466,13 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.54000000</t>
+          <t>0.98000000</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -5492,18 +5492,18 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>6.60000000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -5518,18 +5518,18 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>75.00000000</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -5544,13 +5544,13 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>3.80000000</t>
+          <t>11.00000000</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -5570,18 +5570,18 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>3.39000000</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5596,18 +5596,18 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>6.60000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5622,18 +5622,18 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>590000.00000000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -5648,13 +5648,13 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>1.60000000</t>
+          <t>30.00000000</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -5674,18 +5674,18 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>269.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>0.00800000</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -5726,13 +5726,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>25.90000000</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -5752,18 +5752,18 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5778,18 +5778,18 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>237.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5804,18 +5804,18 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>1.60000000</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5830,13 +5830,13 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -5856,13 +5856,13 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>18.80000000</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -5882,18 +5882,18 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>26.30000000</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5908,18 +5908,18 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>18.80000000</t>
+          <t>1300000.00000000</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -5934,13 +5934,13 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>3.38000000</t>
+          <t>269.00000000</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -5960,18 +5960,18 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5986,18 +5986,18 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>24.10000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6012,13 +6012,13 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>237.00000000</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -6038,18 +6038,18 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>1300000.00000000</t>
+          <t>3.38000000</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6064,13 +6064,13 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>0.00800000</t>
+          <t>98.00000000</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -6090,18 +6090,18 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>26.30000000</t>
+          <t>446.00000000</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -6116,18 +6116,18 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -6142,13 +6142,13 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>98.00000000</t>
+          <t>0.24000000</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -6168,18 +6168,18 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>446.00000000</t>
+          <t>14.80000000</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6194,18 +6194,18 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>30.00000000</t>
+          <t>24.10000000</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6220,13 +6220,13 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>14.80000000</t>
+          <t>25.90000000</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -6246,18 +6246,18 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>0.24000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -6272,18 +6272,18 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>35.00000000</t>
+          <t>27.60000000</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6298,18 +6298,18 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>6.67000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6324,13 +6324,13 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>6.67000000</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -6350,18 +6350,18 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>455.00000000</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -6376,18 +6376,18 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>18.30000000</t>
+          <t>291.00000000</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6402,18 +6402,18 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>6.70000000</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6428,18 +6428,18 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>27.60000000</t>
+          <t>6.70000000</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -6454,13 +6454,13 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>291.00000000</t>
+          <t>28.20000000</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -6480,18 +6480,18 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>37.00000000</t>
+          <t>17.30000000</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6506,13 +6506,13 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2.90000000</t>
+          <t>84.00000000</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -6532,13 +6532,13 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -6558,18 +6558,18 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>14.50000000</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6584,18 +6584,18 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>28.20000000</t>
+          <t>35.00000000</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -6610,18 +6610,18 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>455.00000000</t>
+          <t>780000.00000000</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -6636,13 +6636,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>226.00000000</t>
+          <t>37.00000000</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -6662,13 +6662,13 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -6688,18 +6688,18 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>14.50000000</t>
+          <t>18.30000000</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6714,18 +6714,18 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>780000.00000000</t>
+          <t>43.00000000</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6740,18 +6740,18 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>17.30000000</t>
+          <t>18.90000000</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6766,13 +6766,13 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>84.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -6792,18 +6792,18 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6818,18 +6818,18 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>2.90000000</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6844,13 +6844,13 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>18.90000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -6870,13 +6870,13 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>43.00000000</t>
+          <t>226.00000000</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -6896,13 +6896,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>399.00000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -6922,18 +6922,18 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>193.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6948,18 +6948,18 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>29.00000000</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6974,13 +6974,13 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>4.40000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -7000,13 +7000,13 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>348.00000000</t>
+          <t>60.20000000</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -7026,18 +7026,18 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>75.00000000</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -7052,18 +7052,18 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>1800000.00000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7078,18 +7078,18 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>91.00000000</t>
+          <t>23.50000000</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7104,13 +7104,13 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>0.15000000</t>
+          <t>193.00000000</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -7130,18 +7130,18 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>23.50000000</t>
+          <t>1.35000000</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7156,13 +7156,13 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -7182,18 +7182,18 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>91.00000000</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7208,18 +7208,18 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>29.00000000</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7234,13 +7234,13 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -7260,18 +7260,18 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>658.00000000</t>
+          <t>348.00000000</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7286,13 +7286,13 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -7338,18 +7338,18 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>75.00000000</t>
+          <t>1800000.00000000</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -7364,13 +7364,13 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>1.35000000</t>
+          <t>59.50000000</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -7390,13 +7390,13 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>0.15000000</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -7416,18 +7416,18 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>658.00000000</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -7442,18 +7442,18 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>60.20000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -7468,18 +7468,18 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>4.40000000</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7494,13 +7494,13 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>59.50000000</t>
+          <t>399.00000000</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -7520,18 +7520,18 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>28.90000000</t>
+          <t>349.00000000</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7546,13 +7546,13 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>26.50000000</t>
+          <t>28.90000000</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -7572,18 +7572,18 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>45.00000000</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -7598,18 +7598,18 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>45.00000000</t>
+          <t>54.60000000</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7624,13 +7624,13 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>349.00000000</t>
+          <t>34.30000000</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -7650,18 +7650,18 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>0.68000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7676,18 +7676,18 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>605.00000000</t>
+          <t>277.00000000</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7702,18 +7702,18 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>26.50000000</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7728,13 +7728,13 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>20.00000000</t>
+          <t>35.60000000</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -7754,18 +7754,18 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>3800000.00000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7780,13 +7780,13 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>87.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -7806,13 +7806,13 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>20.00000000</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -7832,18 +7832,18 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>605.00000000</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -7858,13 +7858,13 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.68000000</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -7884,18 +7884,18 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>1.34000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7910,13 +7910,13 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>1.20000000</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -7936,13 +7936,13 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>87.00000000</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -7962,13 +7962,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>34.30000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -7988,13 +7988,13 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>1.20000000</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -8014,18 +8014,18 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>54.60000000</t>
+          <t>3800000.00000000</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8040,18 +8040,18 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>277.00000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -8066,18 +8066,18 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>1.34000000</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8092,13 +8092,13 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>35.60000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -8118,18 +8118,18 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8144,18 +8144,18 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>29.90000000</t>
+          <t>37.20000000</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8170,17 +8170,13 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>327.00000000</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -8200,18 +8196,18 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>1600000.00000000</t>
+          <t>445.00000000</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -8226,13 +8222,13 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
-          <t>28.20000000</t>
+          <t>35.00000000</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -8252,18 +8248,18 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>14.00000000</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8278,13 +8274,13 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>35.00000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -8304,18 +8300,18 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>110.00000000</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -8330,18 +8326,18 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
-          <t>445.00000000</t>
+          <t>0.31000000</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8356,13 +8352,13 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
-          <t>37.20000000</t>
+          <t>71.00000000</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -8382,18 +8378,18 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
-          <t>110.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8408,18 +8404,18 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
-          <t>71.00000000</t>
+          <t>29.90000000</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8434,18 +8430,18 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
         <is>
-          <t>204.00000000</t>
+          <t>1600000.00000000</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8486,18 +8482,18 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>27.10000000</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8512,13 +8508,13 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>28.20000000</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -8538,13 +8534,17 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -8564,18 +8564,18 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
-          <t>27.10000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8590,13 +8590,13 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>204.00000000</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -8616,13 +8616,13 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr">
         <is>
-          <t>327.00000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -8642,18 +8642,18 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
-          <t>14.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8668,18 +8668,18 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8694,18 +8694,18 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
-          <t>22.90000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -8720,13 +8720,13 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -8746,13 +8746,13 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
-          <t>0.31000000</t>
+          <t>22.90000000</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -8772,18 +8772,18 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>28.50000000</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8798,13 +8798,13 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
-          <t>20.10000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -8824,18 +8824,18 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8850,18 +8850,18 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
-          <t>268.00000000</t>
+          <t>1100000.00000000</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8876,18 +8876,18 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
-          <t>25.40000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8902,13 +8902,13 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
-          <t>46.00000000</t>
+          <t>0.31000000</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -8928,13 +8928,13 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>20.10000000</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -8954,18 +8954,18 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>3.64000000</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8980,18 +8980,18 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
-          <t>234.00000000</t>
+          <t>26.10000000</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -9006,13 +9006,13 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -9032,13 +9032,13 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
-          <t>3.64000000</t>
+          <t>25.40000000</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -9058,13 +9058,13 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -9084,18 +9084,18 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
-          <t>441.00000000</t>
+          <t>6.70000000</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -9110,13 +9110,13 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr">
         <is>
-          <t>11.00000000</t>
+          <t>46.00000000</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -9136,18 +9136,18 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr">
         <is>
-          <t>26.10000000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -9162,13 +9162,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
-          <t>0.31000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -9188,18 +9188,18 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr">
         <is>
-          <t>1100000.00000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -9214,18 +9214,18 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr">
         <is>
-          <t>28.50000000</t>
+          <t>441.00000000</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -9240,13 +9240,13 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>234.00000000</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -9266,13 +9266,13 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>268.00000000</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -9292,18 +9292,18 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>11.00000000</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -9318,16 +9318,1164 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
-          <t>6.70000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>1.90000000</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>23.00000000</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2100000.00000000</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>67.30000000</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>0.00400000</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>583.00000000</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>15.40000000</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>4.26000000</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>0.74000000</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>6.90000000</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>33.00000000</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>294.00000000</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>22.40000000</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>10.80000000</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>0.32000000</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>20.50000000</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1.49000000</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>37.20000000</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44438.42013888889</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>365.00000000</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>36.00000000</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>1.49000000</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>27.50000000</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>31.00000000</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>70.30000000</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>648.00000000</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2400000.00000000</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>7.91000000</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>16.60000000</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>22.60000000</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1.20000000</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>51.00000000</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>279.00000000</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>348.00000000</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>32.00000000</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>QUIL03500</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44529.43402777778</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>6.80000000</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
